--- a/Data/Table/Questions.xlsx
+++ b/Data/Table/Questions.xlsx
@@ -16,26 +16,26 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <authors>
-    <author>4599582902</author>
     <author>7840613109</author>
     <author>2775908699</author>
+    <author>4599582902</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0">
-      <text>
-        <t xml:space="preserve">勇: Y/N
-</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="0">
       <text>
         <t xml:space="preserve">勇: C/J(选择/判断)
 </t>
       </text>
     </comment>
-    <comment ref="J1" authorId="2">
+    <comment ref="J1" authorId="1">
       <text>
         <t xml:space="preserve">勇: A/B/C/D
+</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2">
+      <text>
+        <t xml:space="preserve">勇: Y/N
 </t>
       </text>
     </comment>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -206,6 +206,9 @@
     <t>升阶</t>
   </si>
   <si>
+    <t>学位图标</t>
+  </si>
+  <si>
     <t>背景</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>degreeRaise</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>bg</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
   </si>
   <si>
     <t>幼儿园小班</t>
+  </si>
+  <si>
+    <t>degree1</t>
   </si>
   <si>
     <t>bg_coast2</t>
@@ -6672,9 +6681,9 @@
     <col min="2" max="2" width="8.0" hidden="false" customWidth="false"/>
     <col min="3" max="3" width="8.0" hidden="false" customWidth="false"/>
     <col min="4" max="4" width="8.0" hidden="false" customWidth="false"/>
-    <col min="5" max="5" width="8.0" hidden="false" customWidth="false"/>
-    <col min="6" max="6" width="15.5703125" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="8.0" hidden="false" customWidth="false"/>
+    <col min="5" max="5" width="15.5703125" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="8.0" hidden="false" customWidth="false"/>
+    <col min="7" max="7" width="15.5703125" hidden="false" customWidth="true"/>
     <col min="8" max="8" width="8.0" hidden="false" customWidth="false"/>
     <col min="9" max="9" width="8.0" hidden="false" customWidth="false"/>
     <col min="10" max="10" width="8.0" hidden="false" customWidth="false"/>
@@ -6698,6 +6707,7 @@
     <col min="28" max="28" width="8.0" hidden="false" customWidth="false"/>
     <col min="29" max="29" width="8.0" hidden="false" customWidth="false"/>
     <col min="30" max="30" width="8.0" hidden="false" customWidth="false"/>
+    <col min="31" max="31" width="8.0" hidden="false" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6725,7 +6735,9 @@
       <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -6747,31 +6759,34 @@
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -6793,6 +6808,7 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
@@ -6814,10 +6830,12 @@
         <v>24</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -6839,6 +6857,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="n">
@@ -6848,19 +6867,21 @@
         <v>10.0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="18" t="n">
+        <v>67</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -6883,6 +6904,7 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="17" t="n">
@@ -6892,23 +6914,25 @@
         <v>20.0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="18" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="I5" s="17" t="n">
         <f>B5-B4</f>
         <v>0.0</v>
       </c>
-      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -6930,6 +6954,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="17" t="n">
@@ -6939,25 +6964,27 @@
         <v>50.0</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="18" t="n">
+        <v>74</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="18" t="n">
         <v>100.0</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="I6" s="17" t="n">
         <f>B6-B5</f>
         <v>0.0</v>
       </c>
-      <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -6979,6 +7006,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="17" t="n">
@@ -6988,23 +7016,25 @@
         <v>70.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="18" t="n">
+        <v>77</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="I7" s="17" t="n">
         <f>B7-B6</f>
         <v>0.0</v>
       </c>
-      <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -7026,6 +7056,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="n">
@@ -7035,23 +7066,25 @@
         <v>90.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="I8" s="17" t="n">
         <f>B8-B7</f>
         <v>0.0</v>
       </c>
-      <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -7073,6 +7106,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="17" t="n">
@@ -7082,23 +7116,25 @@
         <v>120.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="18" t="n">
+        <v>83</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="I9" s="17" t="n">
         <f>B9-B8</f>
         <v>0.0</v>
       </c>
-      <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -7120,6 +7156,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="17" t="n">
@@ -7129,23 +7166,25 @@
         <v>150.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="18" t="n">
+        <v>86</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="I10" s="17" t="n">
         <f>B10-B9</f>
         <v>0.0</v>
       </c>
-      <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -7167,6 +7206,7 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="n">
@@ -7176,23 +7216,25 @@
         <v>180.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="18" t="n">
+        <v>89</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="I11" s="17" t="n">
         <f>B11-B10</f>
         <v>0.0</v>
       </c>
-      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -7214,6 +7256,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="n">
@@ -7223,25 +7266,27 @@
         <v>230.0</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="18" t="n">
+      <c r="H12" s="18" t="n">
         <v>100.0</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="I12" s="17" t="n">
         <f>B12-B11</f>
         <v>0.0</v>
       </c>
-      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -7263,10 +7308,107 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-    </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+      <c r="AE12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+    </row>
     <row r="16"/>
     <row r="17"/>
     <row r="18"/>

--- a/Data/Table/Questions.xlsx
+++ b/Data/Table/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28640" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="题目|Question" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="536">
   <si>
     <t>Id</t>
   </si>
@@ -1626,7 +1626,7 @@
     <t>degree1</t>
   </si>
   <si>
-    <t>bg_coast2</t>
+    <t>bg_001</t>
   </si>
   <si>
     <t>butterflies_ambience</t>
@@ -1635,7 +1635,7 @@
     <t>幼儿园中班</t>
   </si>
   <si>
-    <t>bg_field2</t>
+    <t>bg_002</t>
   </si>
   <si>
     <t>music_daily_puzzle</t>
@@ -1647,7 +1647,7 @@
     <t>小学</t>
   </si>
   <si>
-    <t>bg_floral4</t>
+    <t>bg_003</t>
   </si>
   <si>
     <t>music_gameplay</t>
@@ -1656,7 +1656,7 @@
     <t>小学一年级</t>
   </si>
   <si>
-    <t>bg_forest5</t>
+    <t>bg_004</t>
   </si>
   <si>
     <t>music_gameplay_02</t>
@@ -1665,7 +1665,7 @@
     <t>小学二年级</t>
   </si>
   <si>
-    <t>bg_frost2</t>
+    <t>bg_005</t>
   </si>
   <si>
     <t>music_gameplay_03</t>
@@ -1674,7 +1674,7 @@
     <t>小学三年级</t>
   </si>
   <si>
-    <t>bg_frost3</t>
+    <t>bg_006</t>
   </si>
   <si>
     <t>music_solo_event</t>
@@ -1683,7 +1683,7 @@
     <t>小学四年级</t>
   </si>
   <si>
-    <t>bg_marsh1</t>
+    <t>bg_007</t>
   </si>
   <si>
     <t>music_star_explorer</t>
@@ -1692,7 +1692,7 @@
     <t>小学五年级</t>
   </si>
   <si>
-    <t>bg_mist5</t>
+    <t>bg_008</t>
   </si>
   <si>
     <t>小学六年级</t>
@@ -1701,7 +1701,7 @@
     <t>初中</t>
   </si>
   <si>
-    <t>bg_cliff5</t>
+    <t>bg_009</t>
   </si>
 </sst>
 </file>
@@ -1709,12 +1709,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1746,85 +1746,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,43 +1758,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1890,11 +1776,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -1936,6 +1941,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF2741B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF56B782"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1948,7 +1959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2741B1"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,7 +1971,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,61 +2079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,7 +2097,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,85 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,22 +2153,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2192,17 +2192,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2225,173 +2245,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,19 +2438,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2457,57 +2456,63 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2774,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AB86"/>
   <sheetViews>
@@ -2782,23 +2787,23 @@
       <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="6.56730769230769" customWidth="1"/>
-    <col min="3" max="3" width="6.71153846153846" customWidth="1"/>
-    <col min="4" max="4" width="31.5673076923077" customWidth="1"/>
-    <col min="5" max="5" width="10.1442307692308" customWidth="1"/>
-    <col min="6" max="6" width="9.14423076923077" customWidth="1"/>
-    <col min="7" max="7" width="11.7115384615385" customWidth="1"/>
-    <col min="8" max="8" width="8.71153846153846" customWidth="1"/>
-    <col min="9" max="10" width="8.28846153846154" customWidth="1"/>
+    <col min="2" max="2" width="6.56666666666667" customWidth="1"/>
+    <col min="3" max="3" width="6.70833333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.1416666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.14166666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.7083333333333" customWidth="1"/>
+    <col min="8" max="8" width="8.70833333333333" customWidth="1"/>
+    <col min="9" max="10" width="8.29166666666667" customWidth="1"/>
     <col min="11" max="11" width="8"/>
-    <col min="12" max="12" width="64.4230769230769" customWidth="1"/>
+    <col min="12" max="12" width="64.425" customWidth="1"/>
     <col min="13" max="28" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" ht="16.5" spans="1:28">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2835,24 +2840,24 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:28">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2889,24 +2894,24 @@
       <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:28">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -2943,24 +2948,24 @@
       <c r="L3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:28">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2976,43 +2981,43 @@
       <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:28">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -3028,43 +3033,43 @@
       <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:28">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -3078,35 +3083,35 @@
         <v>44</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -3120,35 +3125,35 @@
         <v>48</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -3175,28 +3180,28 @@
       <c r="J8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:28">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -3223,28 +3228,28 @@
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -3271,28 +3276,28 @@
       <c r="J10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:28">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -3319,28 +3324,28 @@
       <c r="J11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:28">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -3367,28 +3372,28 @@
       <c r="J12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:28">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -3415,28 +3420,28 @@
       <c r="J13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:28">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -3463,28 +3468,28 @@
       <c r="J14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:28">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -3511,28 +3516,28 @@
       <c r="J15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:28">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -3559,28 +3564,28 @@
       <c r="J16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="17"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -3588,47 +3593,47 @@
         <v>35</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -3636,47 +3641,47 @@
         <v>35</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>106</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:28">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -3684,47 +3689,47 @@
         <v>35</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:28">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -3732,47 +3737,47 @@
         <v>35</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:28">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -3784,43 +3789,43 @@
         <v>124</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:28">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -3828,47 +3833,47 @@
         <v>35</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:28">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -3876,47 +3881,47 @@
         <v>35</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:28">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3924,47 +3929,47 @@
         <v>35</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:28">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -3972,47 +3977,47 @@
         <v>35</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>146</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:28">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -4020,47 +4025,47 @@
         <v>35</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="15" t="s">
         <v>152</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:28">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -4068,47 +4073,47 @@
         <v>35</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="15" t="s">
         <v>158</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="17"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:28">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -4116,47 +4121,47 @@
         <v>35</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:28">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -4164,47 +4169,47 @@
         <v>35</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="15" t="s">
         <v>170</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="17"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:28">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -4212,47 +4217,47 @@
         <v>35</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15" t="s">
         <v>176</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:28">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -4260,47 +4265,47 @@
         <v>35</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="15" t="s">
         <v>182</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:28">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -4308,47 +4313,47 @@
         <v>35</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="15" t="s">
         <v>188</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="17"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:28">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -4356,47 +4361,47 @@
         <v>35</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="17"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -4404,47 +4409,47 @@
         <v>35</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="15" t="s">
         <v>200</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -4452,47 +4457,47 @@
         <v>35</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15" t="s">
         <v>206</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="17"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -4500,47 +4505,47 @@
         <v>35</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15" t="s">
         <v>211</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="17"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:28">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -4548,47 +4553,47 @@
         <v>35</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="15" t="s">
         <v>217</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:28">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -4596,47 +4601,47 @@
         <v>35</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15" t="s">
         <v>223</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:28">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -4644,47 +4649,47 @@
         <v>35</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="15" t="s">
         <v>229</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="17"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:28">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -4692,47 +4697,47 @@
         <v>35</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="15" t="s">
         <v>235</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K40" s="17"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -4740,47 +4745,47 @@
         <v>35</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="15" t="s">
         <v>241</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -4788,47 +4793,47 @@
         <v>35</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="15" t="s">
         <v>247</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="17"/>
+      <c r="K42" s="18"/>
       <c r="L42" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:28">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -4836,47 +4841,47 @@
         <v>35</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="15" t="s">
         <v>253</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="17"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:28">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -4884,47 +4889,47 @@
         <v>35</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="15" t="s">
         <v>259</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K44" s="17"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -4932,47 +4937,47 @@
         <v>35</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="15" t="s">
         <v>263</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="17"/>
+      <c r="K45" s="18"/>
       <c r="L45" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -4980,47 +4985,47 @@
         <v>35</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="15" t="s">
         <v>266</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -5028,47 +5033,47 @@
         <v>35</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15" t="s">
         <v>272</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K47" s="17"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:28">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -5076,47 +5081,47 @@
         <v>35</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="15" t="s">
         <v>275</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K48" s="17"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -5124,47 +5129,47 @@
         <v>35</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="15" t="s">
         <v>277</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K49" s="17"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -5172,47 +5177,47 @@
         <v>35</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="15" t="s">
         <v>282</v>
       </c>
       <c r="E50" s="10"/>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K50" s="17"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -5220,47 +5225,47 @@
         <v>35</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="15" t="s">
         <v>288</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="17"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -5268,47 +5273,47 @@
         <v>35</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15" t="s">
         <v>292</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K52" s="17"/>
+      <c r="K52" s="18"/>
       <c r="L52" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+    </row>
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -5316,47 +5321,47 @@
         <v>35</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="15" t="s">
         <v>297</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="J53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K53" s="17"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+    </row>
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -5364,47 +5369,47 @@
         <v>35</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="15" t="s">
         <v>302</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="17"/>
+      <c r="K54" s="18"/>
       <c r="L54" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -5412,47 +5417,47 @@
         <v>35</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="15" t="s">
         <v>305</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J55" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K55" s="17"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+    </row>
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -5460,47 +5465,47 @@
         <v>35</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="15" t="s">
         <v>308</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J56" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K56" s="17"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -5508,47 +5513,47 @@
         <v>35</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="15" t="s">
         <v>313</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J57" s="18" t="s">
+      <c r="J57" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="17"/>
+      <c r="K57" s="18"/>
       <c r="L57" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -5556,47 +5561,47 @@
         <v>316</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="15" t="s">
         <v>317</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K58" s="17"/>
+      <c r="K58" s="18"/>
       <c r="L58" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -5608,43 +5613,43 @@
         <v>324</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="17"/>
+      <c r="K59" s="18"/>
       <c r="L59" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -5652,47 +5657,47 @@
         <v>323</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="15" t="s">
         <v>330</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="J60" s="18" t="s">
+      <c r="J60" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K60" s="17"/>
+      <c r="K60" s="18"/>
       <c r="L60" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -5700,47 +5705,47 @@
         <v>35</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="15" t="s">
         <v>336</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J61" s="18" t="s">
+      <c r="J61" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K61" s="17"/>
+      <c r="K61" s="18"/>
       <c r="L61" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20"/>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -5748,47 +5753,47 @@
         <v>342</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="15" t="s">
         <v>343</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K62" s="17"/>
+      <c r="K62" s="18"/>
       <c r="L62" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
-      <c r="AB62" s="20"/>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -5796,47 +5801,47 @@
         <v>349</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="15" t="s">
         <v>350</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K63" s="17"/>
+      <c r="K63" s="18"/>
       <c r="L63" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20"/>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+    </row>
+    <row r="64" ht="16.5" spans="1:28">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -5844,47 +5849,47 @@
         <v>323</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="15" t="s">
         <v>354</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="J64" s="18" t="s">
+      <c r="J64" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="17"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="20"/>
-      <c r="AB64" s="20"/>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+    </row>
+    <row r="65" ht="16.5" spans="1:28">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -5892,47 +5897,47 @@
         <v>360</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="15" t="s">
         <v>361</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="J65" s="18" t="s">
+      <c r="J65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K65" s="17"/>
+      <c r="K65" s="18"/>
       <c r="L65" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20"/>
-      <c r="AA65" s="20"/>
-      <c r="AB65" s="20"/>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+    </row>
+    <row r="66" ht="16.5" spans="1:28">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -5940,47 +5945,47 @@
         <v>360</v>
       </c>
       <c r="C66" s="10"/>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="15" t="s">
         <v>367</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="J66" s="18" t="s">
+      <c r="J66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="17"/>
+      <c r="K66" s="18"/>
       <c r="L66" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+    </row>
+    <row r="67" ht="16.5" spans="1:28">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -5988,47 +5993,47 @@
         <v>373</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="15" t="s">
         <v>374</v>
       </c>
       <c r="E67" s="10"/>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J67" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K67" s="17"/>
+      <c r="K67" s="18"/>
       <c r="L67" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="20"/>
-      <c r="Z67" s="20"/>
-      <c r="AA67" s="20"/>
-      <c r="AB67" s="20"/>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:28">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -6036,47 +6041,47 @@
         <v>373</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="15" t="s">
         <v>380</v>
       </c>
       <c r="E68" s="10"/>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="J68" s="18" t="s">
+      <c r="J68" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="17"/>
+      <c r="K68" s="18"/>
       <c r="L68" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="20"/>
-      <c r="Z68" s="20"/>
-      <c r="AA68" s="20"/>
-      <c r="AB68" s="20"/>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+    </row>
+    <row r="69" ht="16.5" spans="1:28">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -6084,47 +6089,47 @@
         <v>316</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="15" t="s">
         <v>386</v>
       </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="J69" s="18" t="s">
+      <c r="J69" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K69" s="17"/>
+      <c r="K69" s="18"/>
       <c r="L69" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="20"/>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="20"/>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+    </row>
+    <row r="70" ht="16.5" spans="1:28">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -6132,47 +6137,47 @@
         <v>373</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="15" t="s">
         <v>392</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J70" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K70" s="17"/>
+      <c r="K70" s="18"/>
       <c r="L70" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-      <c r="W70" s="20"/>
-      <c r="X70" s="20"/>
-      <c r="Y70" s="20"/>
-      <c r="Z70" s="20"/>
-      <c r="AA70" s="20"/>
-      <c r="AB70" s="20"/>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:28">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -6180,47 +6185,47 @@
         <v>323</v>
       </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="15" t="s">
         <v>398</v>
       </c>
       <c r="E71" s="10"/>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="J71" s="18" t="s">
+      <c r="J71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K71" s="17"/>
+      <c r="K71" s="18"/>
       <c r="L71" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="20"/>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+    </row>
+    <row r="72" ht="16.5" spans="1:28">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -6228,47 +6233,47 @@
         <v>404</v>
       </c>
       <c r="C72" s="10"/>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="15" t="s">
         <v>405</v>
       </c>
       <c r="E72" s="10"/>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="J72" s="18" t="s">
+      <c r="J72" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K72" s="17"/>
+      <c r="K72" s="18"/>
       <c r="L72" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="20"/>
-      <c r="AB72" s="20"/>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+    </row>
+    <row r="73" ht="16.5" spans="1:28">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -6276,47 +6281,47 @@
         <v>411</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="15" t="s">
         <v>412</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="J73" s="18" t="s">
+      <c r="J73" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="17"/>
+      <c r="K73" s="18"/>
       <c r="L73" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
-      <c r="AB73" s="20"/>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+    </row>
+    <row r="74" ht="16.5" spans="1:28">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -6324,47 +6329,47 @@
         <v>360</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="15" t="s">
         <v>418</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="15">
+      <c r="F74" s="14">
         <v>12</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="14">
         <v>24</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="14">
         <v>36</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="14">
         <v>48</v>
       </c>
-      <c r="J74" s="18" t="s">
+      <c r="J74" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K74" s="17"/>
+      <c r="K74" s="18"/>
       <c r="L74" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="20"/>
-      <c r="X74" s="20"/>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="20"/>
-      <c r="AB74" s="20"/>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+    </row>
+    <row r="75" ht="16.5" spans="1:28">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -6372,47 +6377,47 @@
         <v>360</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="15" t="s">
         <v>420</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="J75" s="18" t="s">
+      <c r="J75" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K75" s="17"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="20"/>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="20"/>
-      <c r="AA75" s="20"/>
-      <c r="AB75" s="20"/>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+    </row>
+    <row r="76" ht="16.5" spans="1:28">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -6420,47 +6425,47 @@
         <v>360</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="15" t="s">
         <v>426</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K76" s="17"/>
+      <c r="K76" s="18"/>
       <c r="L76" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="20"/>
-      <c r="X76" s="20"/>
-      <c r="Y76" s="20"/>
-      <c r="Z76" s="20"/>
-      <c r="AA76" s="20"/>
-      <c r="AB76" s="20"/>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+    </row>
+    <row r="77" ht="16.5" spans="1:28">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -6468,47 +6473,47 @@
         <v>360</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="15" t="s">
         <v>432</v>
       </c>
       <c r="E77" s="10"/>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K77" s="17"/>
+      <c r="K77" s="18"/>
       <c r="L77" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="20"/>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
-      <c r="AB77" s="20"/>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+    </row>
+    <row r="78" ht="16.5" spans="1:28">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -6516,47 +6521,47 @@
         <v>316</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="15" t="s">
         <v>436</v>
       </c>
       <c r="E78" s="10"/>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K78" s="17"/>
+      <c r="K78" s="18"/>
       <c r="L78" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
-      <c r="AB78" s="20"/>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+    </row>
+    <row r="79" ht="16.5" spans="1:28">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -6564,47 +6569,47 @@
         <v>442</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="15" t="s">
         <v>443</v>
       </c>
       <c r="E79" s="10"/>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K79" s="17"/>
+      <c r="K79" s="18"/>
       <c r="L79" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="20"/>
-      <c r="Y79" s="20"/>
-      <c r="Z79" s="20"/>
-      <c r="AA79" s="20"/>
-      <c r="AB79" s="20"/>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+    </row>
+    <row r="80" ht="16.5" spans="1:28">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -6612,47 +6617,47 @@
         <v>316</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="15" t="s">
         <v>449</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="J80" s="18" t="s">
+      <c r="J80" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K80" s="17"/>
+      <c r="K80" s="18"/>
       <c r="L80" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
-      <c r="V80" s="20"/>
-      <c r="W80" s="20"/>
-      <c r="X80" s="20"/>
-      <c r="Y80" s="20"/>
-      <c r="Z80" s="20"/>
-      <c r="AA80" s="20"/>
-      <c r="AB80" s="20"/>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+    </row>
+    <row r="81" ht="16.5" spans="1:28">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -6660,47 +6665,47 @@
         <v>455</v>
       </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="15" t="s">
         <v>456</v>
       </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K81" s="17"/>
+      <c r="K81" s="18"/>
       <c r="L81" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="20"/>
-      <c r="W81" s="20"/>
-      <c r="X81" s="20"/>
-      <c r="Y81" s="20"/>
-      <c r="Z81" s="20"/>
-      <c r="AA81" s="20"/>
-      <c r="AB81" s="20"/>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+    </row>
+    <row r="82" ht="16.5" spans="1:28">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -6708,47 +6713,47 @@
         <v>462</v>
       </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="15" t="s">
         <v>463</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="J82" s="18" t="s">
+      <c r="J82" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K82" s="17"/>
+      <c r="K82" s="18"/>
       <c r="L82" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="20"/>
-      <c r="Y82" s="20"/>
-      <c r="Z82" s="20"/>
-      <c r="AA82" s="20"/>
-      <c r="AB82" s="20"/>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
+    </row>
+    <row r="83" ht="16.5" spans="1:28">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -6756,47 +6761,47 @@
         <v>360</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="15" t="s">
         <v>469</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="J83" s="18" t="s">
+      <c r="J83" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K83" s="17"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="20"/>
-      <c r="AA83" s="20"/>
-      <c r="AB83" s="20"/>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+    </row>
+    <row r="84" ht="16.5" spans="1:28">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -6804,47 +6809,47 @@
         <v>411</v>
       </c>
       <c r="C84" s="10"/>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="15" t="s">
         <v>475</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="J84" s="18" t="s">
+      <c r="J84" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K84" s="17"/>
+      <c r="K84" s="18"/>
       <c r="L84" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+    </row>
+    <row r="85" ht="16.5" spans="1:28">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -6852,47 +6857,47 @@
         <v>323</v>
       </c>
       <c r="C85" s="10"/>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="15" t="s">
         <v>481</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="J85" s="18" t="s">
+      <c r="J85" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K85" s="17"/>
+      <c r="K85" s="18"/>
       <c r="L85" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="20"/>
-      <c r="W85" s="20"/>
-      <c r="X85" s="20"/>
-      <c r="Y85" s="20"/>
-      <c r="Z85" s="20"/>
-      <c r="AA85" s="20"/>
-      <c r="AB85" s="20"/>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16"/>
+    </row>
+    <row r="86" ht="16.5" spans="1:28">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -6900,45 +6905,45 @@
         <v>25</v>
       </c>
       <c r="C86" s="10"/>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="15" t="s">
         <v>487</v>
       </c>
       <c r="E86" s="10"/>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H86" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="J86" s="18" t="s">
+      <c r="J86" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K86" s="17"/>
+      <c r="K86" s="18"/>
       <c r="L86" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="20"/>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="20"/>
-      <c r="Z86" s="20"/>
-      <c r="AA86" s="20"/>
-      <c r="AB86" s="20"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6948,22 +6953,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8"/>
-    <col min="3" max="3" width="13.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="13.15" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.5673076923077" customWidth="1"/>
+    <col min="5" max="5" width="15.5666666666667" customWidth="1"/>
     <col min="6" max="6" width="8"/>
-    <col min="7" max="7" width="15.5673076923077" customWidth="1"/>
+    <col min="7" max="7" width="15.5666666666667" customWidth="1"/>
     <col min="8" max="31" width="8"/>
   </cols>
   <sheetData>
@@ -7018,7 +7023,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" ht="16.5" spans="1:31">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7067,7 +7072,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" ht="16.5" spans="1:31">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -7116,7 +7121,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" ht="16.5" spans="1:31">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -7163,7 +7168,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" ht="16.5" spans="1:31">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -7213,7 +7218,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" ht="16.5" spans="1:31">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -7265,7 +7270,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" ht="16.5" spans="1:31">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -7315,7 +7320,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" ht="16.5" spans="1:31">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -7365,7 +7370,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" ht="16.5" spans="1:31">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -7415,7 +7420,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" ht="16.5" spans="1:31">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -7465,7 +7470,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" ht="16.5" spans="1:31">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -7515,7 +7520,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" ht="16.5" spans="1:31">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -7673,7 +7678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA21"/>
   <sheetViews>
@@ -7681,7 +7686,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="27" width="8"/>
   </cols>
@@ -7715,7 +7720,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" ht="16.5" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -7773,7 +7778,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" ht="16.5" spans="1:27">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7802,7 +7807,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" ht="16.5" spans="1:27">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7831,7 +7836,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" ht="16.5" spans="1:27">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7860,7 +7865,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" ht="16.5" spans="1:27">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7889,7 +7894,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" ht="16.5" spans="1:27">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/Data/Table/Questions.xlsx
+++ b/Data/Table/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28640" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="题目|Question" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538">
   <si>
     <t>Id</t>
   </si>
@@ -168,7 +168,7 @@
     <t>果实</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
   </si>
   <si>
     <t>土豆可食用的部位是它的块茎。在植物学里，称之为“块茎”。土豆是茄科茄属一年生草本植物，全株可分地上和地下两大部分，地上部分有茎、叶、花、果实和种子，地下部分有根、匍匐茎和块茎。</t>
@@ -244,6 +244,9 @@
     <t>北美洲</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>亚洲（Asia）是亚细亚洲的简称，是世界七大洲中面积最大的洲，也是人口最多的洲，其绝大部分土地位于东半球和北半球。</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
   </si>
   <si>
     <t>香山</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>珠穆朗玛峰（英语： Mount
@@ -1575,6 +1575,9 @@
 血友病为一组遗传性凝血功能障碍的出血性疾病。</t>
   </si>
   <si>
+    <t>等级下线</t>
+  </si>
+  <si>
     <t>等级上线</t>
   </si>
   <si>
@@ -1597,6 +1600,9 @@
   </si>
   <si>
     <t>等级间距</t>
+  </si>
+  <si>
+    <t>levelBottom</t>
   </si>
   <si>
     <t>levelTop</t>
@@ -1709,9 +1715,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1746,8 +1752,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,46 +1850,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1814,29 +1864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,17 +1872,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1868,16 +1886,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,18 +1907,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -1941,12 +1948,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2741B1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF56B782"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1959,7 +1960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF2741B1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,7 +1972,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +2038,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,61 +2098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,25 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2103,19 +2134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,19 +2146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,17 +2160,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2173,6 +2180,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2192,17 +2214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2227,21 +2249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2255,152 +2262,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2418,6 +2425,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2438,13 +2448,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2456,63 +2472,57 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2779,4171 +2789,4171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="6.56666666666667" customWidth="1"/>
-    <col min="3" max="3" width="6.70833333333333" customWidth="1"/>
-    <col min="4" max="4" width="31.5666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.14166666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.7083333333333" customWidth="1"/>
-    <col min="8" max="8" width="8.70833333333333" customWidth="1"/>
-    <col min="9" max="10" width="8.29166666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.56730769230769" customWidth="1"/>
+    <col min="3" max="3" width="6.71153846153846" customWidth="1"/>
+    <col min="4" max="4" width="31.5673076923077" customWidth="1"/>
+    <col min="5" max="5" width="10.1442307692308" customWidth="1"/>
+    <col min="6" max="6" width="9.14423076923077" customWidth="1"/>
+    <col min="7" max="7" width="11.7115384615385" customWidth="1"/>
+    <col min="8" max="8" width="8.71153846153846" customWidth="1"/>
+    <col min="9" max="10" width="8.28846153846154" customWidth="1"/>
     <col min="11" max="11" width="8"/>
-    <col min="12" max="12" width="64.425" customWidth="1"/>
+    <col min="12" max="12" width="64.4230769230769" customWidth="1"/>
     <col min="13" max="28" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:28">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:28">
-      <c r="A2" s="9" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:28">
-      <c r="A3" s="9" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:28">
-      <c r="A4" s="10">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:28">
-      <c r="A5" s="10">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:28">
-      <c r="A6" s="10">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="19"/>
       <c r="K6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:28">
-      <c r="A7" s="10">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:28">
-      <c r="A8" s="10">
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>27</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>28</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>23</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="12">
         <v>30</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:28">
-      <c r="A9" s="10">
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="10" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:28">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:28">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:28">
-      <c r="A12" s="10">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:28">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:28">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:28">
-      <c r="A15" s="10">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:28">
-      <c r="A16" s="10">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:28">
-      <c r="A17" s="10">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:28">
-      <c r="A18" s="10">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:28">
-      <c r="A19" s="10">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="16" t="s">
         <v>116</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="18"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:28">
-      <c r="A20" s="10">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="16" t="s">
         <v>122</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="18"/>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:28">
-      <c r="A21" s="10">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K21" s="18"/>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:28">
-      <c r="A22" s="10">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K22" s="18"/>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:28">
-      <c r="A23" s="10">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="16" t="s">
         <v>138</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="18"/>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:28">
-      <c r="A24" s="10">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="16" t="s">
         <v>144</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="18"/>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:28">
-      <c r="A25" s="10">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="16" t="s">
         <v>150</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K25" s="18"/>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:28">
-      <c r="A26" s="10">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="16" t="s">
         <v>156</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="18"/>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:28">
-      <c r="A27" s="10">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="16" t="s">
         <v>162</v>
       </c>
       <c r="J27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:28">
-      <c r="A28" s="10">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:28">
-      <c r="A29" s="10">
-        <v>26</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:28">
-      <c r="A30" s="10">
-        <v>27</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="19" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:28">
-      <c r="A31" s="10">
-        <v>28</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:28">
-      <c r="A32" s="10">
-        <v>29</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:28">
-      <c r="A33" s="10">
-        <v>30</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:28">
-      <c r="A34" s="10">
-        <v>31</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="16" t="s">
         <v>204</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="18"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:28">
-      <c r="A35" s="10">
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="14" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="16" t="s">
         <v>209</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K35" s="18"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:28">
-      <c r="A36" s="10">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="16" t="s">
         <v>215</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K36" s="18"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:28">
-      <c r="A37" s="10">
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="11">
         <v>34</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="16" t="s">
         <v>221</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K37" s="18"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:28">
-      <c r="A38" s="10">
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="11">
         <v>35</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="16" t="s">
         <v>227</v>
       </c>
       <c r="J38" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="11">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="11">
+        <v>37</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="11">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:28">
-      <c r="A39" s="10">
-        <v>36</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="K41" s="18"/>
+      <c r="L41" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="J39" s="19" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="11">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="11">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="11">
+        <v>42</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="11">
+        <v>43</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="11">
+        <v>44</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:28">
-      <c r="A40" s="10">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="K47" s="18"/>
+      <c r="L47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="11">
+        <v>45</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:28">
-      <c r="A41" s="10">
-        <v>38</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:28">
-      <c r="A42" s="10">
-        <v>39</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:28">
-      <c r="A43" s="10">
-        <v>40</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:28">
-      <c r="A44" s="10">
-        <v>41</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:28">
-      <c r="A45" s="10">
-        <v>42</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:28">
-      <c r="A46" s="10">
-        <v>43</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:28">
-      <c r="A47" s="10">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-      <c r="Y47" s="16"/>
-      <c r="Z47" s="16"/>
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:28">
-      <c r="A48" s="10">
-        <v>45</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>276</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K48" s="18"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:28">
-      <c r="A49" s="10">
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="11">
         <v>46</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="15" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="16" t="s">
         <v>280</v>
       </c>
       <c r="J49" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="18"/>
+      <c r="L49" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="11">
+        <v>47</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="J50" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K49" s="18"/>
-      <c r="L49" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-    </row>
-    <row r="50" ht="16.5" spans="1:28">
-      <c r="A50" s="10">
-        <v>47</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="K50" s="18"/>
+      <c r="L50" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="11">
+        <v>48</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:28">
-      <c r="A51" s="10">
-        <v>48</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="11">
+        <v>49</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-    </row>
-    <row r="52" ht="16.5" spans="1:28">
-      <c r="A52" s="10">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="18"/>
+      <c r="L52" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="11">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="16"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:28">
-      <c r="A53" s="10">
-        <v>50</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="18"/>
+      <c r="L53" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="11">
+        <v>51</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="J53" s="19" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="11">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-    </row>
-    <row r="54" ht="16.5" spans="1:28">
-      <c r="A54" s="10">
-        <v>51</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="K55" s="18"/>
+      <c r="L55" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="11">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="14" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="11">
+        <v>54</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G57" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
-    </row>
-    <row r="55" ht="16.5" spans="1:28">
-      <c r="A55" s="10">
-        <v>52</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
-      <c r="Y55" s="16"/>
-      <c r="Z55" s="16"/>
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="16"/>
-    </row>
-    <row r="56" ht="16.5" spans="1:28">
-      <c r="A56" s="10">
-        <v>53</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-    </row>
-    <row r="57" ht="16.5" spans="1:28">
-      <c r="A57" s="10">
-        <v>54</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="16" t="s">
         <v>119</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="18"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:28">
-      <c r="A58" s="10">
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="11">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="14" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="16" t="s">
         <v>321</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K58" s="18"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:28">
-      <c r="A59" s="10">
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="11">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="12" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="14" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="16" t="s">
         <v>328</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59" s="18"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="16"/>
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="16"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:28">
-      <c r="A60" s="10">
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="11">
         <v>57</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="14" t="s">
+      <c r="E60" s="11"/>
+      <c r="F60" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="16" t="s">
         <v>334</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K60" s="18"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-    </row>
-    <row r="61" ht="16.5" spans="1:28">
-      <c r="A61" s="10">
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="11">
         <v>58</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="15" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="14" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="16" t="s">
         <v>340</v>
       </c>
       <c r="J61" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="18"/>
+      <c r="L61" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="11">
+        <v>59</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="18"/>
+      <c r="L62" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="11">
+        <v>60</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:28">
-      <c r="A62" s="10">
-        <v>59</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-    </row>
-    <row r="63" ht="16.5" spans="1:28">
-      <c r="A63" s="10">
-        <v>60</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="J63" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K63" s="18"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:28">
-      <c r="A64" s="10">
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="11">
         <v>61</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="14" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="16" t="s">
         <v>358</v>
       </c>
       <c r="J64" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K64" s="18"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:28">
-      <c r="A65" s="10">
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="11">
         <v>62</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="16" t="s">
         <v>365</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K65" s="18"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-    </row>
-    <row r="66" ht="16.5" spans="1:28">
-      <c r="A66" s="10">
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="11">
         <v>63</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="14" t="s">
+      <c r="E66" s="11"/>
+      <c r="F66" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="16" t="s">
         <v>371</v>
       </c>
       <c r="J66" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K66" s="18"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-    </row>
-    <row r="67" ht="16.5" spans="1:28">
-      <c r="A67" s="10">
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="11">
         <v>64</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="14" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="16" t="s">
         <v>378</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K67" s="18"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-    </row>
-    <row r="68" ht="16.5" spans="1:28">
-      <c r="A68" s="10">
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="11">
         <v>65</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="14" t="s">
+      <c r="E68" s="11"/>
+      <c r="F68" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="16" t="s">
         <v>384</v>
       </c>
       <c r="J68" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K68" s="18"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-    </row>
-    <row r="69" ht="16.5" spans="1:28">
-      <c r="A69" s="10">
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="21"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="11">
         <v>66</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="14" t="s">
+      <c r="E69" s="11"/>
+      <c r="F69" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="16" t="s">
         <v>390</v>
       </c>
       <c r="J69" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="18"/>
+      <c r="L69" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="11">
         <v>67</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-    </row>
-    <row r="70" ht="16.5" spans="1:28">
-      <c r="A70" s="10">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="14" t="s">
+      <c r="E70" s="11"/>
+      <c r="F70" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="16" t="s">
         <v>396</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K70" s="18"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-    </row>
-    <row r="71" ht="16.5" spans="1:28">
-      <c r="A71" s="10">
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="11">
         <v>68</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="14" t="s">
+      <c r="E71" s="11"/>
+      <c r="F71" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="16" t="s">
         <v>402</v>
       </c>
       <c r="J71" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" s="18"/>
+      <c r="L71" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="11">
+        <v>69</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-    </row>
-    <row r="72" ht="16.5" spans="1:28">
-      <c r="A72" s="10">
-        <v>69</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="K72" s="18"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-    </row>
-    <row r="73" ht="16.5" spans="1:28">
-      <c r="A73" s="10">
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="11">
         <v>70</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="14" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="16" t="s">
         <v>416</v>
       </c>
       <c r="J73" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K73" s="18"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-      <c r="Z73" s="16"/>
-      <c r="AA73" s="16"/>
-      <c r="AB73" s="16"/>
-    </row>
-    <row r="74" ht="16.5" spans="1:28">
-      <c r="A74" s="10">
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="11">
         <v>71</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="15" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="14">
+      <c r="E74" s="11"/>
+      <c r="F74" s="16">
         <v>12</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="16">
         <v>24</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="16">
         <v>36</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="16">
         <v>48</v>
       </c>
       <c r="J74" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="18"/>
+      <c r="L74" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="11">
+        <v>72</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" s="18"/>
+      <c r="L75" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="11">
+        <v>73</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
+      <c r="AB76" s="21"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="11">
         <v>74</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="L74" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-    </row>
-    <row r="75" ht="16.5" spans="1:28">
-      <c r="A75" s="10">
-        <v>72</v>
-      </c>
-      <c r="B75" s="10" t="s">
+      <c r="B77" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-    </row>
-    <row r="76" ht="16.5" spans="1:28">
-      <c r="A76" s="10">
-        <v>73</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="I76" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-    </row>
-    <row r="77" ht="16.5" spans="1:28">
-      <c r="A77" s="10">
-        <v>74</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="14" t="s">
+      <c r="E77" s="11"/>
+      <c r="F77" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I77" s="14" t="s">
-        <v>33</v>
+      <c r="I77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K77" s="18"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-    </row>
-    <row r="78" ht="16.5" spans="1:28">
-      <c r="A78" s="10">
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
+      <c r="AB77" s="21"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="11">
         <v>75</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="15" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="14" t="s">
+      <c r="E78" s="11"/>
+      <c r="F78" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="16" t="s">
         <v>440</v>
       </c>
       <c r="J78" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K78" s="18"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="16"/>
-      <c r="AB78" s="16"/>
-    </row>
-    <row r="79" ht="16.5" spans="1:28">
-      <c r="A79" s="10">
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="11">
         <v>76</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="15" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="14" t="s">
+      <c r="E79" s="11"/>
+      <c r="F79" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="I79" s="14" t="s">
+      <c r="I79" s="16" t="s">
         <v>447</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K79" s="18"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-    </row>
-    <row r="80" ht="16.5" spans="1:28">
-      <c r="A80" s="10">
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="21"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="11">
         <v>77</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="11"/>
+      <c r="D80" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="14" t="s">
+      <c r="E80" s="11"/>
+      <c r="F80" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="16" t="s">
         <v>453</v>
       </c>
       <c r="J80" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K80" s="18"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-    </row>
-    <row r="81" ht="16.5" spans="1:28">
-      <c r="A81" s="10">
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="11">
         <v>78</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="15" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="14" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="16" t="s">
         <v>460</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K81" s="18"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="16"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="16"/>
-    </row>
-    <row r="82" ht="16.5" spans="1:28">
-      <c r="A82" s="10">
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="11">
         <v>79</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="11"/>
+      <c r="D82" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="14" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="16" t="s">
         <v>467</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K82" s="18"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="16"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="16"/>
-    </row>
-    <row r="83" ht="16.5" spans="1:28">
-      <c r="A83" s="10">
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="11">
         <v>80</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="15" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="14" t="s">
+      <c r="E83" s="11"/>
+      <c r="F83" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="16" t="s">
         <v>473</v>
       </c>
       <c r="J83" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K83" s="18"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-    </row>
-    <row r="84" ht="16.5" spans="1:28">
-      <c r="A84" s="10">
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="11">
         <v>81</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="14" t="s">
+      <c r="E84" s="11"/>
+      <c r="F84" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="I84" s="14" t="s">
+      <c r="I84" s="16" t="s">
         <v>479</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>26</v>
       </c>
       <c r="K84" s="18"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-    </row>
-    <row r="85" ht="16.5" spans="1:28">
-      <c r="A85" s="10">
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="11">
         <v>82</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="11"/>
+      <c r="D85" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="14" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I85" s="16" t="s">
         <v>485</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="K85" s="18"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
-      <c r="AA85" s="16"/>
-      <c r="AB85" s="16"/>
-    </row>
-    <row r="86" ht="16.5" spans="1:28">
-      <c r="A86" s="10">
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="11">
         <v>83</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="11"/>
+      <c r="D86" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="14" t="s">
+      <c r="E86" s="11"/>
+      <c r="F86" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="I86" s="14" t="s">
+      <c r="I86" s="16" t="s">
         <v>491</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="K86" s="18"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="16"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6953,30 +6963,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="8"/>
-    <col min="3" max="3" width="13.15" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.5666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8"/>
-    <col min="7" max="7" width="15.5666666666667" customWidth="1"/>
-    <col min="8" max="31" width="8"/>
+    <col min="1" max="1" width="8"/>
+    <col min="2" max="2" width="12.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="9.38461538461539" customWidth="1"/>
+    <col min="4" max="4" width="13.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.5673076923077" customWidth="1"/>
+    <col min="7" max="7" width="8"/>
+    <col min="8" max="8" width="15.5673076923077" customWidth="1"/>
+    <col min="9" max="32" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>493</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -7000,7 +7012,9 @@
       <c r="I1" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -7022,34 +7036,37 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:31">
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>503</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -7071,8 +7088,9 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:31">
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -7080,7 +7098,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
@@ -7095,10 +7113,12 @@
         <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -7120,31 +7140,34 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:31">
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H4" s="1">
+        <v>512</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -7167,35 +7190,38 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:31">
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D5" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H5" s="1">
+        <v>515</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" ref="I5:I12" si="0">B5-B4</f>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J12" si="0">C5-C4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -7217,37 +7243,40 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:31">
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H6" s="1">
+        <v>519</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -7269,35 +7298,38 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:31">
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="1">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H7" s="1">
+        <v>522</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -7319,35 +7351,38 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:31">
+      <c r="AF7" s="2"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="1">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H8" s="1">
+        <v>525</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -7369,35 +7404,38 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:31">
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="1">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H9" s="1">
+        <v>528</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -7419,35 +7457,38 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:31">
+      <c r="AF9" s="2"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="1">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1">
         <v>150</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D10" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H10" s="1">
+        <v>531</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -7469,35 +7510,38 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:31">
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="1">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
         <v>180</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -7519,37 +7563,40 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:31">
+      <c r="AF11" s="2"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="1">
+        <v>180</v>
+      </c>
+      <c r="C12" s="1">
         <v>230</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H12" s="1">
+        <v>537</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I12" s="1">
         <v>100</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -7571,10 +7618,11 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7604,8 +7652,9 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7637,8 +7686,9 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7670,6 +7720,7 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7678,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AA21"/>
   <sheetViews>
@@ -7686,7 +7737,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="27" width="8"/>
   </cols>
@@ -7720,7 +7771,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:27">
+    <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -7778,7 +7829,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" ht="16.5" spans="1:27">
+    <row r="4" spans="1:27">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7807,7 +7858,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" ht="16.5" spans="1:27">
+    <row r="5" spans="1:27">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7836,7 +7887,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" ht="16.5" spans="1:27">
+    <row r="6" spans="1:27">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7865,7 +7916,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" ht="16.5" spans="1:27">
+    <row r="7" spans="1:27">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7894,7 +7945,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" ht="16.5" spans="1:27">
+    <row r="8" spans="1:27">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
